--- a/Scripts/Kamper/V25/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/E-sluttspill.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,19 +497,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elektra FK</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Dronning Maud FC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>MiT Fotball</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
@@ -525,14 +529,20 @@
           <t>Tempe Kunstgress</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Omega FK</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>47673859</v>
+      </c>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
+          <t>Petroleum FK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -547,21 +557,33 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>kan ikke spille 22-23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="F3" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tempe Kunstgress</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Realkameratene FK</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>41591463</v>
+      </c>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Petroleum FK</t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -573,14 +595,30 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mit Fotball</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>CAF</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tempe Kunstgress</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NTNUI Champs</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>48229637</v>
+      </c>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -648,7 +686,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>Dronning Maud FC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -660,7 +698,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
+          <t>Petroleum FK</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
@@ -676,14 +714,20 @@
           <t>Tempe Kunstgress</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>HSK</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>97069604</v>
+      </c>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mit Fotball</t>
+          <t>MiT Fotball</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -695,7 +739,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Petroleum FK</t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
@@ -711,8 +755,14 @@
           <t>Tempe Kunstgress</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sparkekameratene</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>48225968</v>
+      </c>
       <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -730,7 +780,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dronning Maud FC</t>
+          <t>Elektra FK</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
@@ -746,8 +796,14 @@
           <t>Tempe Kunstgress</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>FK Hånd til Munn</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>47178566</v>
+      </c>
       <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -815,7 +871,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Omega Løkka</t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -843,8 +899,14 @@
           <t>Tempe Kunstgress</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Realkameratene FK</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>41591463</v>
+      </c>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -862,7 +924,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>MiT Fotball</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
@@ -878,14 +940,20 @@
           <t>Tempe Kunstgress</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>FK Hånd til Munn</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>47178566</v>
+      </c>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
+          <t>Dronning Maud FC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -897,7 +965,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dronning Maud FC</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
@@ -913,8 +981,14 @@
           <t>Tempe Kunstgress</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>NTNUI Champs</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>48229637</v>
+      </c>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -982,7 +1056,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mit Fotball</t>
+          <t>Dronning Maud FC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -994,7 +1068,7 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dronning Maud FC</t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
@@ -1010,8 +1084,14 @@
           <t>Tempe Hovedbane</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Sparkekameratene</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>48225968</v>
+      </c>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1045,8 +1125,14 @@
           <t>Tempe Hovedbane</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>HSK</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>97069604</v>
+      </c>
       <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1064,7 +1150,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Petroleum FK</t>
+          <t>MiT Fotball</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
@@ -1080,8 +1166,14 @@
           <t>Tempe Hovedbane</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Omega FK</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>47673859</v>
+      </c>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1149,7 +1241,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
+          <t>MiT Fotball</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1161,7 +1253,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mit Fotball</t>
+          <t>Omega Løkka</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
@@ -1177,14 +1269,20 @@
           <t>Tempe Hovedbane</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>NTNUI Champs</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>48229637</v>
+      </c>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Omega Løkka</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1196,7 +1294,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Petroleum FK</t>
+          <t>Elektra FK</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
@@ -1212,14 +1310,20 @@
           <t>Tempe Hovedbane</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Realkameratene FK</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>41591463</v>
+      </c>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dronning Maud FC</t>
+          <t>Petroleum FK</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1231,7 +1335,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>Chemie FK</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
@@ -1247,8 +1351,14 @@
           <t>Tempe Hovedbane</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Sparkekameratene</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>48225968</v>
+      </c>
       <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1328,20 +1438,36 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chemie FK</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>Dronning Maud FC</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20:00 </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Tempe Kunstgress</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>HSK</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>97069604</v>
+      </c>
       <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mit Fotball</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1353,20 +1479,36 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Omega Løkka</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+          <t>Petroleum FK</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tempe Kunstgress</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Omega FK</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>47673859</v>
+      </c>
       <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Petroleum FK</t>
+          <t>Omega Løkka</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1378,15 +1520,168 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
+          <t>Chemie FK</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tempe Kunstgress</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>FK Hånd til Munn</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>47178566</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Week 7 Fixtures</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Dato</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Kl</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Bane</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Dommer</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Telefonnummer</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Kommentar</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Elektra FK</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Petroleum FK</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CAF</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MiT Fotball</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Omega Løkka</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Dronning Maud FC</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Scripts/Kamper/V25/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/E-sluttspill.xlsx
@@ -545,13 +545,17 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Omega Løkka</t>
@@ -586,13 +590,17 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>CAF</t>

--- a/Scripts/Kamper/V25/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/E-sluttspill.xlsx
@@ -697,13 +697,17 @@
           <t>Dronning Maud FC</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Petroleum FK</t>
@@ -738,13 +742,17 @@
           <t>MiT Fotball</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Chemie FK</t>
@@ -779,13 +787,17 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Elektra FK</t>

--- a/Scripts/Kamper/V25/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/E-sluttspill.xlsx
@@ -1449,13 +1449,17 @@
           <t>Elektra FK</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>Dronning Maud FC</t>
@@ -1490,13 +1494,17 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>Petroleum FK</t>
@@ -1531,13 +1539,17 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>Chemie FK</t>

--- a/Scripts/Kamper/V25/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/E-sluttspill.xlsx
@@ -894,13 +894,17 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Elektra FK</t>
@@ -935,13 +939,17 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>MiT Fotball</t>
@@ -976,13 +984,17 @@
           <t>Dronning Maud FC</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>CAF</t>

--- a/Scripts/Kamper/V25/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/E-sluttspill.xlsx
@@ -1091,13 +1091,17 @@
           <t>Dronning Maud FC</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Chemie FK</t>

--- a/Scripts/Kamper/V25/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/E-sluttspill.xlsx
@@ -1136,13 +1136,17 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Omega Løkka</t>
@@ -1177,13 +1181,17 @@
           <t>Elektra FK</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>MiT Fotball</t>

--- a/Scripts/Kamper/V25/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/E-sluttspill.xlsx
@@ -1670,13 +1670,17 @@
           <t>Elektra FK</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>Petroleum FK</t>

--- a/Scripts/Kamper/V25/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/E-sluttspill.xlsx
@@ -1699,13 +1699,17 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>MiT Fotball</t>
@@ -1724,13 +1728,17 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>Dronning Maud FC</t>

--- a/Scripts/Kamper/V25/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/E-sluttspill.xlsx
@@ -1288,13 +1288,17 @@
           <t>MiT Fotball</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>Omega Løkka</t>
@@ -1329,13 +1333,17 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Elektra FK</t>
@@ -1370,13 +1378,17 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>Chemie FK</t>
